--- a/data/trans_orig/P04C04_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>462918</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>443511</v>
+        <v>444785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>480877</v>
+        <v>479248</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8443504092867241</v>
+        <v>0.8443504092867243</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8089533927263677</v>
+        <v>0.8112765224699913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8771087309541535</v>
+        <v>0.8741366875296415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>559</v>
@@ -762,19 +762,19 @@
         <v>404394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>389980</v>
+        <v>388244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>417747</v>
+        <v>416482</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8332790463661123</v>
+        <v>0.8332790463661122</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8035775865601482</v>
+        <v>0.800000190008829</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8607917505644773</v>
+        <v>0.8581865547501186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1024</v>
@@ -783,19 +783,19 @@
         <v>867312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>842738</v>
+        <v>843449</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>889479</v>
+        <v>889012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8391518721299972</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8153755501719748</v>
+        <v>0.816063284043991</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8605986350458809</v>
+        <v>0.8601473432792721</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2367</v>
+        <v>2383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17651</v>
+        <v>18769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01337785619992245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004318016163354778</v>
+        <v>0.004346085509152584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03219500945771975</v>
+        <v>0.03423395985282725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>6673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3139</v>
+        <v>3361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11537</v>
+        <v>12784</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01375054985226637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006467412248845028</v>
+        <v>0.006924816589776049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02377202264196892</v>
+        <v>0.02634139370708135</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -854,19 +854,19 @@
         <v>14008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8131</v>
+        <v>7557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26072</v>
+        <v>25252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0135528537872727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00786675934333029</v>
+        <v>0.007312036239897038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0252250653089294</v>
+        <v>0.02443168910858888</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>78001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61880</v>
+        <v>61331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96229</v>
+        <v>95447</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1422717345133533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1128677131985681</v>
+        <v>0.1118661076677175</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1755187794715574</v>
+        <v>0.1740935446456253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -904,19 +904,19 @@
         <v>74237</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61755</v>
+        <v>62311</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88355</v>
+        <v>89761</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1529704037816215</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1272494548088576</v>
+        <v>0.1283958605626579</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1820603514164542</v>
+        <v>0.1849578846875208</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -925,19 +925,19 @@
         <v>152238</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>130350</v>
+        <v>131455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>174340</v>
+        <v>175207</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1472952740827301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1261178055390592</v>
+        <v>0.1271868969483289</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1686794336145636</v>
+        <v>0.1695183093515665</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>411941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>395739</v>
+        <v>396591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>426012</v>
+        <v>426407</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8543561319159531</v>
+        <v>0.8543561319159529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.820753842311705</v>
+        <v>0.8225203513375435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8835404510987703</v>
+        <v>0.8843586357582883</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>475</v>
@@ -1050,19 +1050,19 @@
         <v>349321</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336267</v>
+        <v>333408</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362258</v>
+        <v>361421</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8255377957047025</v>
+        <v>0.8255377957047023</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7946897174839505</v>
+        <v>0.7879327664409458</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8561120667574071</v>
+        <v>0.8541332487718482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -1071,19 +1071,19 @@
         <v>761260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>740465</v>
+        <v>740657</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>779813</v>
+        <v>780268</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8408863768622561</v>
+        <v>0.8408863768622562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8179156107997462</v>
+        <v>0.8181280659130442</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8613791522180065</v>
+        <v>0.8618820767398487</v>
       </c>
     </row>
     <row r="9">
@@ -1103,16 +1103,16 @@
         <v>664</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8687</v>
+        <v>9279</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0062829467081975</v>
+        <v>0.006282946708197499</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001377889676141181</v>
+        <v>0.001377221578877472</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01801757895433175</v>
+        <v>0.01924511733878758</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1121,19 +1121,19 @@
         <v>4781</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2135</v>
+        <v>2194</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9322</v>
+        <v>10080</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0112980346534286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00504629710097617</v>
+        <v>0.005185519634697046</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02203115598736432</v>
+        <v>0.02382166381843693</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1142,19 +1142,19 @@
         <v>7810</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3800</v>
+        <v>3603</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14322</v>
+        <v>13944</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.008627010074653699</v>
+        <v>0.008627010074653697</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004198001507324106</v>
+        <v>0.003979952949777969</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01581979024217581</v>
+        <v>0.01540231414282583</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>67195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53260</v>
+        <v>52417</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83631</v>
+        <v>82000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1393609213758496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1104611073585352</v>
+        <v>0.1087115112674938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1734498880189993</v>
+        <v>0.1700657290170768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -1192,19 +1192,19 @@
         <v>69042</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56734</v>
+        <v>57486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82198</v>
+        <v>84396</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1631641696418688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1340764248751524</v>
+        <v>0.1358557203281286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1942561800181983</v>
+        <v>0.1994510083559029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -1213,19 +1213,19 @@
         <v>136237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118825</v>
+        <v>116861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157035</v>
+        <v>157105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1504866130630901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1312533915844961</v>
+        <v>0.1290842207261736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1734608306043773</v>
+        <v>0.1735375755513057</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>398692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>380737</v>
+        <v>382737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>413833</v>
+        <v>412591</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8494814643652285</v>
+        <v>0.8494814643652286</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8112239874936278</v>
+        <v>0.8154863093529687</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8817419937244393</v>
+        <v>0.8790948725245765</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>246</v>
@@ -1338,19 +1338,19 @@
         <v>163116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>155237</v>
+        <v>155783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>169189</v>
+        <v>169608</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8732189801971313</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8310382896558349</v>
+        <v>0.8339622876823489</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9057279779638142</v>
+        <v>0.9079708764963046</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>659</v>
@@ -1359,19 +1359,19 @@
         <v>561809</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>543550</v>
+        <v>544717</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>577502</v>
+        <v>578827</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8562394361066019</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8284120819673083</v>
+        <v>0.8301899096983163</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8801572757671536</v>
+        <v>0.8821774150087163</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>5009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1724</v>
+        <v>1377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13501</v>
+        <v>11405</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01067162299358953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003672358810954492</v>
+        <v>0.002933936161577604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02876530481208417</v>
+        <v>0.02429964417122564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4779</v>
+        <v>4144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007381208935796888</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0255816456266171</v>
+        <v>0.02218187864069916</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1430,19 +1430,19 @@
         <v>6387</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2618</v>
+        <v>2900</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13132</v>
+        <v>12884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009734855836594334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003990722955810108</v>
+        <v>0.004420036518558484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02001434928554476</v>
+        <v>0.01963674218783368</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>65635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50536</v>
+        <v>51866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83169</v>
+        <v>81797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1398469126411818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1076748693705829</v>
+        <v>0.1105100656089332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.177204913942366</v>
+        <v>0.1742823069258981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1480,19 +1480,19 @@
         <v>22304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16264</v>
+        <v>16146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30095</v>
+        <v>29243</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1193998108670718</v>
+        <v>0.1193998108670719</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08706535892540172</v>
+        <v>0.08643770245890271</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1611070483386967</v>
+        <v>0.1565464287829139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -1501,19 +1501,19 @@
         <v>87939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72464</v>
+        <v>72826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>105459</v>
+        <v>105967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1340257080568038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1104399775431058</v>
+        <v>0.1109919933748223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1607274905440088</v>
+        <v>0.1615024954839379</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>967458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>935898</v>
+        <v>937013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>990957</v>
+        <v>993063</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8555839676375657</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8276735775011093</v>
+        <v>0.8286595348534622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8763655921385745</v>
+        <v>0.8782286815817967</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1045</v>
@@ -1626,19 +1626,19 @@
         <v>744197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>726416</v>
+        <v>726756</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>760913</v>
+        <v>759392</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8661788128309269</v>
+        <v>0.866178812830927</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8454833033087589</v>
+        <v>0.8458794629965648</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8856355321269674</v>
+        <v>0.8838647232827811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2004</v>
@@ -1647,19 +1647,19 @@
         <v>1711654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1677999</v>
+        <v>1680331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1744181</v>
+        <v>1743098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8601583998566155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.843245557378466</v>
+        <v>0.844417754371484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8765040218095096</v>
+        <v>0.8759600088333768</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>14970</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8293</v>
+        <v>8372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24696</v>
+        <v>25180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01323854700329612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007334196616143623</v>
+        <v>0.007403957540587578</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02184008454408429</v>
+        <v>0.02226797665427753</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1697,19 +1697,19 @@
         <v>6923</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3523</v>
+        <v>3038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12399</v>
+        <v>12638</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.00805773769053782</v>
+        <v>0.008057737690537822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004100995511987048</v>
+        <v>0.003536406623152282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01443117568328938</v>
+        <v>0.01470940374699814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1718,19 +1718,19 @@
         <v>21893</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14824</v>
+        <v>14212</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34109</v>
+        <v>33134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01100167986569182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007449644497902265</v>
+        <v>0.007141896824600123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01714064514990248</v>
+        <v>0.01665091656030791</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>148330</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>125550</v>
+        <v>123894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>178598</v>
+        <v>176447</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1311774853591381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1110319658182528</v>
+        <v>0.1095669938330467</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1579454610255048</v>
+        <v>0.1560429124125599</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -1768,19 +1768,19 @@
         <v>108052</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92324</v>
+        <v>93420</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>125681</v>
+        <v>124981</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1257634494785353</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1074563848016815</v>
+        <v>0.1087324226668937</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1462820822644874</v>
+        <v>0.1454671299351571</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>317</v>
@@ -1789,19 +1789,19 @@
         <v>256382</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>225781</v>
+        <v>226911</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>289817</v>
+        <v>287864</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1288399202776927</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1134617636301251</v>
+        <v>0.1140298491727552</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1456418175448827</v>
+        <v>0.1446603456488872</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>500705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>485405</v>
+        <v>482136</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>516121</v>
+        <v>515703</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8851445456505301</v>
+        <v>0.88514454565053</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8580977133843041</v>
+        <v>0.8523181318683011</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9123975054722239</v>
+        <v>0.9116582604955323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1103</v>
@@ -1914,19 +1914,19 @@
         <v>712053</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>693721</v>
+        <v>693719</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>728777</v>
+        <v>729709</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8598059604273901</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8376699831182127</v>
+        <v>0.8376675581835893</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.879999537922422</v>
+        <v>0.8811254335425683</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1582</v>
@@ -1935,19 +1935,19 @@
         <v>1212758</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1188243</v>
+        <v>1187999</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1235124</v>
+        <v>1235974</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8700894259227459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8525009298171502</v>
+        <v>0.8523258835473808</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8861352720592585</v>
+        <v>0.886745330670071</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>12123</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6760</v>
+        <v>6575</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21008</v>
+        <v>21788</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02143138510411178</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01195101878076506</v>
+        <v>0.01162334221240768</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03713852960718069</v>
+        <v>0.03851730391700694</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1985,19 +1985,19 @@
         <v>8801</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4520</v>
+        <v>4844</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14876</v>
+        <v>14996</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01062680695864105</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005457733452969615</v>
+        <v>0.005848837101314897</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01796301921081482</v>
+        <v>0.01810740923921016</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -2006,19 +2006,19 @@
         <v>20924</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13779</v>
+        <v>13578</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31047</v>
+        <v>31541</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.01501176000840153</v>
+        <v>0.01501176000840154</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009885915985615615</v>
+        <v>0.009741514877308614</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02227473994212637</v>
+        <v>0.02262895910455893</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>52848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39931</v>
+        <v>39636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67865</v>
+        <v>69773</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09342406924535809</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07058942758427644</v>
+        <v>0.07006907277346008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1199722893311595</v>
+        <v>0.1233447813238294</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>170</v>
@@ -2056,19 +2056,19 @@
         <v>107302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91267</v>
+        <v>90625</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124705</v>
+        <v>124894</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1295672326139689</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1102051571553536</v>
+        <v>0.109430264238159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1505816611380029</v>
+        <v>0.1508101204326421</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>225</v>
@@ -2077,19 +2077,19 @@
         <v>160150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139217</v>
+        <v>139571</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>182771</v>
+        <v>183069</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1148988140688526</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09988099443837921</v>
+        <v>0.1001347883280208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1311283904764392</v>
+        <v>0.1313425578139198</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>186892</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>160981</v>
+        <v>162367</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>205515</v>
+        <v>206223</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7878150026906896</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6785900534501379</v>
+        <v>0.6844344543972358</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8663204435833969</v>
+        <v>0.8693042203017491</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>987</v>
@@ -2202,19 +2202,19 @@
         <v>732765</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>714028</v>
+        <v>712017</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>752007</v>
+        <v>750667</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8708710150827638</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8486028667846854</v>
+        <v>0.8462130005828575</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.893740238436862</v>
+        <v>0.8921476367964863</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1080</v>
@@ -2223,19 +2223,19 @@
         <v>919657</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>885514</v>
+        <v>885644</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>946205</v>
+        <v>946138</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8526043811957731</v>
+        <v>0.852604381195773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8209513846798537</v>
+        <v>0.8210718516931169</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8772174675616882</v>
+        <v>0.877155216264359</v>
       </c>
     </row>
     <row r="25">
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17515</v>
+        <v>15344</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01439637479316341</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07383018084045108</v>
+        <v>0.06468081464824926</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2273,19 +2273,19 @@
         <v>8446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3526</v>
+        <v>3672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17868</v>
+        <v>19149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01003812080531185</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004190529114263515</v>
+        <v>0.004364395482978165</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02123542230342711</v>
+        <v>0.02275781573329386</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2294,19 +2294,19 @@
         <v>11861</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5220</v>
+        <v>5424</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25979</v>
+        <v>27397</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01099663816835105</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004839836379784277</v>
+        <v>0.005028901544437971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02408473596351083</v>
+        <v>0.02539983353290598</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>46921</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28557</v>
+        <v>28167</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71396</v>
+        <v>71501</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.197788622516147</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1203792606607752</v>
+        <v>0.1187323319247903</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3009574461413579</v>
+        <v>0.3014039278542404</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -2344,19 +2344,19 @@
         <v>100205</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>83130</v>
+        <v>83119</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119658</v>
+        <v>120095</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1190908641119245</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0987982564737085</v>
+        <v>0.09878457304691829</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1422106484943269</v>
+        <v>0.1427291957794473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>176</v>
@@ -2365,19 +2365,19 @@
         <v>147126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>121127</v>
+        <v>122019</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>177902</v>
+        <v>179217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1363989806358759</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1122954603617144</v>
+        <v>0.1131222661446905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1649308858734874</v>
+        <v>0.1661500566948488</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>2928604</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2879620</v>
+        <v>2880777</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2976212</v>
+        <v>2979814</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8529714215982251</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8387045633723649</v>
+        <v>0.8390414904117757</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8668375370793165</v>
+        <v>0.867886631489371</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4415</v>
@@ -2490,19 +2490,19 @@
         <v>3105846</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3064751</v>
+        <v>3064099</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3138535</v>
+        <v>3140261</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.857023737484532</v>
+        <v>0.8570237374845319</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8456840752297071</v>
+        <v>0.8455041630568469</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8660437631645093</v>
+        <v>0.8665201081922547</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7226</v>
@@ -2511,19 +2511,19 @@
         <v>6034450</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5970530</v>
+        <v>5969531</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6092532</v>
+        <v>6090094</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8550522935950046</v>
+        <v>0.8550522935950045</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8459950464322205</v>
+        <v>0.8458535654964445</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8632821765689954</v>
+        <v>0.8629367834851198</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>45880</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32237</v>
+        <v>32113</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63935</v>
+        <v>64365</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01336292464964672</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009389229088932699</v>
+        <v>0.009353120674571043</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01862153401570168</v>
+        <v>0.0187466181045604</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>51</v>
@@ -2561,19 +2561,19 @@
         <v>37003</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27377</v>
+        <v>27796</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49925</v>
+        <v>49073</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01021044761313302</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007554445802752427</v>
+        <v>0.007670119863972041</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01377632593305172</v>
+        <v>0.01354114909244644</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>90</v>
@@ -2582,19 +2582,19 @@
         <v>82883</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>65254</v>
+        <v>66195</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>104657</v>
+        <v>105596</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01174412163186189</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009246141500415014</v>
+        <v>0.009379549175225139</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01482934723680987</v>
+        <v>0.01496241472693486</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>458930</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>415659</v>
+        <v>409480</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>508553</v>
+        <v>503484</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.133665653752128</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1210629691184671</v>
+        <v>0.1192632784462851</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1481186992169685</v>
+        <v>0.1466423578968454</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>763</v>
@@ -2632,19 +2632,19 @@
         <v>481142</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>450430</v>
+        <v>448917</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>522215</v>
+        <v>520391</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1327658149023351</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1242911523290255</v>
+        <v>0.1238736010802782</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1440993314934974</v>
+        <v>0.1435959846799667</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1204</v>
@@ -2653,19 +2653,19 @@
         <v>940072</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>886122</v>
+        <v>886188</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1003848</v>
+        <v>1002682</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1332035847731337</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1255591916786906</v>
+        <v>0.1255685596221795</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.142240391360404</v>
+        <v>0.1420751420176395</v>
       </c>
     </row>
     <row r="31">
